--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">'BC Tonghop'!$14:$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$1:$Q$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$2:$Q$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$6:$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -681,68 +681,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,99 +1078,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -1185,43 +1185,43 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:22" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:22" s="20" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="49" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41" t="s">
         <v>1</v>
       </c>
       <c r="P8" s="19"/>
@@ -1233,33 +1233,33 @@
       <c r="V8" s="19"/>
     </row>
     <row r="9" spans="1:22" s="20" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="52" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -1269,10 +1269,10 @@
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" s="20" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="21" t="s">
         <v>40</v>
       </c>
@@ -1282,18 +1282,18 @@
       <c r="G10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="36"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -1484,50 +1484,50 @@
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="34" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
@@ -1547,27 +1547,27 @@
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -1604,46 +1604,46 @@
       <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
@@ -1663,28 +1663,52 @@
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="E9:G9"/>
@@ -1701,30 +1725,6 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">'BC Tonghop'!$14:$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$2:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BC Tonghop'!$A$2:$O$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BC Tonghop'!$6:$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -681,6 +681,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -702,9 +723,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,24 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -1078,99 +1078,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -1185,43 +1185,43 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:22" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:22" s="20" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="42" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36" t="s">
         <v>1</v>
       </c>
       <c r="P8" s="19"/>
@@ -1233,33 +1233,33 @@
       <c r="V8" s="19"/>
     </row>
     <row r="9" spans="1:22" s="20" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="45" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -1269,10 +1269,10 @@
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" s="20" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="21" t="s">
         <v>40</v>
       </c>
@@ -1282,18 +1282,18 @@
       <c r="G10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="22" t="s">
         <v>52</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="41"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -1484,50 +1484,50 @@
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
@@ -1547,27 +1547,27 @@
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -1604,46 +1604,46 @@
       <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
@@ -1663,52 +1663,28 @@
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="E9:G9"/>
@@ -1725,6 +1701,30 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rptKeHoachTrungHan_ChuyenTiep_Report.xlsx
@@ -114,9 +114,6 @@
     <t>&lt;#Items.STT&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -198,15 +195,6 @@
     <t>(8 = 9+ 10)</t>
   </si>
   <si>
-    <t>&lt;#Items.STienDoThucHien&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.NgayThangQuyetDinh&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>(14 = 13 - 12)</t>
   </si>
   <si>
@@ -222,66 +210,6 @@
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>&lt;#TongMucDauTuSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#TongMucDauTuNSQPSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChiPhiDuPhongSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#TongSoSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#VonBoTriHetNamSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#VonDaBoTriNamSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#TongMucDauTuPhaiBoTriSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#KeHoachVonNamDoDuyetSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#KeHoachVonDeNghiBoTriNamSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChenhLechSoVoiQuyetDinhBoSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.TongMucDauTu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.TongMucDauTuNSQP&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.ChiPhiDuPhong&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.TongSo&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.VonBoTriHetNam&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.VonDaBoTriNam&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.TongMucDauTuPhaiBoTri&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.KeHoachVonNamDoDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.KeHoachVonDeNghiBoTriNam&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.ChenhLechSoVoiQuyetDinhBo&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>(11 = 6 -9)</t>
   </si>
   <si>
@@ -334,6 +262,78 @@
   </si>
   <si>
     <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#TongMucDauTuSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#TongMucDauTuNSQPSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#ChiPhiDuPhongSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#TongSoSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#VonBoTriHetNamSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#VonDaBoTriNamSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#TongMucDauTuPhaiBoTriSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#KeHoachVonNamDoDuyetSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#KeHoachVonDeNghiBoTriNamSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#ChenhLechSoVoiQuyetDinhBoSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.STienDoThucHien&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.NgayThangQuyetDinh&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.TongMucDauTu&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.TongMucDauTuNSQP&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.ChiPhiDuPhong&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.TongSo&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.VonBoTriHetNam&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.VonDaBoTriNam&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.TongMucDauTuPhaiBoTri&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.KeHoachVonNamDoDuyet&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.KeHoachVonDeNghiBoTriNam&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#Items.ChenhLechSoVoiQuyetDinhBo&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +444,44 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -602,7 +640,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,6 +781,25 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,13 +1152,13 @@
       <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
@@ -1115,33 +1172,37 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+    <row r="3" spans="1:22" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -1186,7 +1247,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N6" s="53"/>
       <c r="O6" s="53"/>
@@ -1197,28 +1258,28 @@
         <v>0</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="44"/>
       <c r="H8" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="43"/>
       <c r="J8" s="44"/>
       <c r="K8" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="48" t="s">
-        <v>50</v>
-      </c>
       <c r="M8" s="36" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36" t="s">
@@ -1236,24 +1297,24 @@
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="E9" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
       <c r="H9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="J9" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
@@ -1274,13 +1335,13 @@
       <c r="C10" s="50"/>
       <c r="D10" s="52"/>
       <c r="E10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
@@ -1288,10 +1349,10 @@
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
       <c r="M10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="O10" s="36"/>
       <c r="P10" s="19"/>
@@ -1316,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>6</v>
@@ -1325,28 +1386,28 @@
         <v>7</v>
       </c>
       <c r="H11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
@@ -1358,10 +1419,10 @@
     </row>
     <row r="12" spans="1:22" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -1387,39 +1448,39 @@
     <row r="13" spans="1:22" s="17" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="30" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="18"/>
@@ -1435,46 +1496,46 @@
         <v>28</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1485,20 +1546,20 @@
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="34" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
@@ -1508,20 +1569,20 @@
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -1548,20 +1609,20 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -1605,7 +1666,7 @@
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -1616,7 +1677,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="34" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
@@ -1626,7 +1687,7 @@
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -1637,7 +1698,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="34" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
@@ -1664,7 +1725,7 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -1675,7 +1736,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -1685,6 +1746,7 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P3:S3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="E9:G9"/>
@@ -1705,11 +1767,10 @@
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A3:C4"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="J26:O26"/>
     <mergeCell ref="J24:O24"/>
